--- a/2 курс 2 семестр/[DS] Data Science/Данные.xlsx
+++ b/2 курс 2 семестр/[DS] Data Science/Данные.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6104AF-FFF8-4712-A774-A52876F16D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380F35E-9CB7-4D07-A220-31022D89E093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходные данные" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="18" r:id="rId7"/>
+    <pivotCache cacheId="19" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -348,7 +348,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица3</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -964,7 +964,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица11</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица11</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -7604,7 +7604,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица1</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8034,7 +8034,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица4</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица4</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -8609,7 +8609,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица5</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9063,7 +9063,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица6</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9531,7 +9531,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица7</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица7</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -9998,7 +9998,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица8</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица8</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -10425,7 +10425,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица9</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица9</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -11061,7 +11061,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ЛБ1 (2).xlsx]ЛБ1!Сводная таблица10</c:name>
+    <c:name>[Данные.xlsx]ЛБ1!Сводная таблица10</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -22228,16 +22228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>440055</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24853,1160 +24853,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7015005-B562-45BC-9C29-E2D9C951468E}" name="Сводная таблица9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A105:B113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю SleepPerDayHours" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61E84847-46AB-403B-A80B-2A2F6AC2D4F3}" name="Сводная таблица10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A122:B131" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю NumberOfFriend" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="8" baseItem="2" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B086301-5499-4FC7-932B-E772680E6983}" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A32:F37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю DepressionStatus" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF12AF15-9E1B-4798-8CAD-4B11DD27AFED}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю FaceChallangesToCompleteAcademicTask" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EA7B373-5E95-4FF2-85CE-C0CB7585BF95}" name="Сводная таблица5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A88:F93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю TakingNoteInClass" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF06EC44-1E92-451D-AD1C-6AFF51E8D9E4}" name="Сводная таблица4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A62:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Gender" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E526A03D-97D9-46F2-82D7-2514005F8B3C}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A27:F36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E29376C-06EB-47C5-A9EA-33AB21B9DF24}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A1:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю FaceChallangesToCompleteAcademicTask" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EC80FFC-1E29-4CBD-9A64-5BE05F4A7DB4}" name="Сводная таблица6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A136:F141" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{412A454A-75C6-4452-AB79-EC1E4E20CE61}" name="Сводная таблица5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A114:F118" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8F83496-0822-46BB-941A-8A1AF7D3FE2E}" name="Сводная таблица4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A88:F93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69801D21-CE1B-440D-9038-FD3663AAEE84}" name="Сводная таблица5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69801D21-CE1B-440D-9038-FD3663AAEE84}" name="Сводная таблица5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A47:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
@@ -26139,8 +24986,810 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36D4B623-7045-4F98-9321-649950B7342D}" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4D0DB82-5268-4DA6-BC80-FBEE913E33DE}" name="Сводная таблица6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A61:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю DepressionStatus" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B086301-5499-4FC7-932B-E772680E6983}" name="Сводная таблица3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A32:F37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю DepressionStatus" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF12AF15-9E1B-4798-8CAD-4B11DD27AFED}" name="Сводная таблица1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю FaceChallangesToCompleteAcademicTask" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EA7B373-5E95-4FF2-85CE-C0CB7585BF95}" name="Сводная таблица5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A88:F93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю TakingNoteInClass" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF06EC44-1E92-451D-AD1C-6AFF51E8D9E4}" name="Сводная таблица4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A62:F66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю Gender" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EC80FFC-1E29-4CBD-9A64-5BE05F4A7DB4}" name="Сводная таблица6" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A136:F141" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{412A454A-75C6-4452-AB79-EC1E4E20CE61}" name="Сводная таблица5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A114:F118" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8F83496-0822-46BB-941A-8A1AF7D3FE2E}" name="Сводная таблица4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A88:F93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36D4B623-7045-4F98-9321-649950B7342D}" name="Сводная таблица3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A59:F64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
@@ -26239,8 +25888,113 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F042E8FF-7F53-4FCA-824A-C59ED86F180F}" name="Сводная таблица7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E526A03D-97D9-46F2-82D7-2514005F8B3C}" name="Сводная таблица2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A27:F36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю AcademicPerformance" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F042E8FF-7F53-4FCA-824A-C59ED86F180F}" name="Сводная таблица7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A77:B81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
@@ -26387,8 +26141,110 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6C2A4AB-0D6F-4648-90A7-16B98E068464}" name="Сводная таблица3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E29376C-06EB-47C5-A9EA-33AB21B9DF24}" name="Сводная таблица1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A1:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю FaceChallangesToCompleteAcademicTask" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6C2A4AB-0D6F-4648-90A7-16B98E068464}" name="Сводная таблица3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A2:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" dataField="1" numFmtId="1" showAll="0">
@@ -26489,51 +26345,11 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB33B8C2-065A-485B-A7EC-4F49911CF154}" name="Сводная таблица8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A91:B94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AF11A9E-3523-4D86-BDE0-AE148617E85C}" name="Сводная таблица1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A18:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="3">
         <item x="1"/>
@@ -26541,6 +26357,11 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="13">
@@ -26562,7 +26383,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -26579,10 +26400,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю LikePresentation" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Количество по полю Gender" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -26591,25 +26412,25 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1">
+    <chartFormat chart="2" format="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="2">
+    <chartFormat chart="2" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="1" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -26628,8 +26449,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6775FDEF-ED1A-41CE-96ED-18CB058D2827}" name="Сводная таблица4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6775FDEF-ED1A-41CE-96ED-18CB058D2827}" name="Сводная таблица4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A32:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
@@ -26722,8 +26543,152 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61E84847-46AB-403B-A80B-2A2F6AC2D4F3}" name="Сводная таблица10" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A122:B131" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю NumberOfFriend" fld="8" subtotal="count" showDataAs="percentOfTotal" baseField="8" baseItem="2" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27CB9BDB-EDE4-49DD-BE9C-D4F6BD7273D2}" name="Сводная таблица11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{27CB9BDB-EDE4-49DD-BE9C-D4F6BD7273D2}" name="Сводная таблица11" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A142:B145" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
@@ -26868,112 +26833,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0AF11A9E-3523-4D86-BDE0-AE148617E85C}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A18:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Количество по полю Gender" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4D0DB82-5268-4DA6-BC80-FBEE913E33DE}" name="Сводная таблица6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A61:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7015005-B562-45BC-9C29-E2D9C951468E}" name="Сводная таблица9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A105:B113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0">
@@ -27000,7 +26861,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="0"/>
@@ -27008,8 +26869,162 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" numFmtId="1" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Количество по полю SleepPerDayHours" fld="7" subtotal="count" showDataAs="percentOfTotal" baseField="7" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB33B8C2-065A-485B-A7EC-4F49911CF154}" name="Сводная таблица8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A91:B94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="13">
@@ -27031,17 +27046,14 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -27051,9 +27063,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Количество по полю DepressionStatus" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Количество по полю LikePresentation" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="3">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -27069,7 +27081,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -27081,20 +27093,8 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -27377,7 +27377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C47" sqref="C47:H50"/>
     </sheetView>
   </sheetViews>
@@ -31406,14 +31406,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBBF9C3-C66C-4E82-A1FD-DD95AB869D30}">
   <dimension ref="A2:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -31919,8 +31922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9772A0B-AB09-43AB-B2A1-81ADEBD06AD2}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C59"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32419,8 +32422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF29050-16B1-4DA1-88A4-B108BC97D4B9}">
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34870,8 +34873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0136412F-F78A-43EB-9481-30AEBDD458FC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34916,8 +34919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D8C1A-9A82-4A1F-BCE3-316591123981}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
